--- a/JUEGOS PLACAS/P14NDC103 PLACAS 4.5 ACERO/P14NDJ27 PLACA DCP ANGOSTA # 1 ACERO.xlsx
+++ b/JUEGOS PLACAS/P14NDC103 PLACAS 4.5 ACERO/P14NDJ27 PLACA DCP ANGOSTA # 1 ACERO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\JUEGOS PLACAS\P14NDC103 PLACAS 4.5 ACERO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\JUEGOS PLACAS\P14NDC103 PLACAS 4.5 ACERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C95145C-606D-472F-8C4C-0C9E349AB5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{4B8B2565-90B4-4FBC-8261-3DD1DEE4160B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F1D4C374-AAC1-4EAB-9F97-07A273B627E3}"/>
+    <workbookView xWindow="13230" yWindow="285" windowWidth="10365" windowHeight="12450" xr2:uid="{F1D4C374-AAC1-4EAB-9F97-07A273B627E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -897,9 +886,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -937,7 +926,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1043,7 +1032,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1185,7 +1174,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1196,7 +1185,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1560,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="41">
-        <v>190602843</v>
+        <v>200214682</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>43</v>
